--- a/seeds/plant_seeds.xlsx
+++ b/seeds/plant_seeds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\Bootcamp\Code\project 2\greenThumb\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\Bootcamp\Code\project 2\greenThumb\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -1689,13 +1689,184 @@
   </si>
   <si>
     <t>After digging up the potatoes, shake off any excess dirt but no not wash the roots. If you want to store sweet potatoes for an extended period of time, you must cure them. Curing the potatoes allows a second skin to form over scratches and bruises that occur when digging up the potatoes. To cure, keep the roots in a warm place (about 80°F) at high humidity (about 90%) for 10 to 14 days. For best curing, make sure that the potatoes are not touching one another. Store the sweet potatoes in a root cellar or other place with a temperature of at least 55°F. The ideal temperature range is 55° to 60°F.</t>
+  </si>
+  <si>
+    <t>Dill</t>
+  </si>
+  <si>
+    <t>Dill is an annual, self-seeding plant with feathery green leaves. It is used most commonly in soups, stews, and for pickling. Dill is easy to grow and attracts beneficial insects to your garden, such as wasps and other predatory insects.</t>
+  </si>
+  <si>
+    <t>In your garden, plant dill next to cabbage or onions, but keep the dill away from carrots.</t>
+  </si>
+  <si>
+    <t>Plant after the last spring frost date. The soil should be around 60 to 70ºF for best results.</t>
+  </si>
+  <si>
+    <t>Sow dill seeds about ¼-inch deep and 18 inches apart in rich soil, then gently rake the seeds into the soil.</t>
+  </si>
+  <si>
+    <t>Dill does not grow well when transplanted, so start the seeds fresh in the garden in early summer. Make sure to shelter the plants from strong winds.</t>
+  </si>
+  <si>
+    <t>After 10 to 14 days, the plants should appear in the soil. Wait another 10 to 14 days, then thin the plants to about 12 to 18 inches apart.</t>
+  </si>
+  <si>
+    <t>Water the plants freely during the growing season.</t>
+  </si>
+  <si>
+    <t>In order to ensure a season-long fresh supply of dill, continue sowing seeds every few weeks. For an extended harvest, do not allow flowers to grow on the plants. If the soil remains undisturbed throughout the growing season, more dill plants will grow the next season.</t>
+  </si>
+  <si>
+    <t>Leaf spot and occasionally a few other types of fungal leaf and root diseases</t>
+  </si>
+  <si>
+    <t>As soon as the plant has four to five leaves, you can start harvesting. Pinch off the leaves or cut them off with scissors. If you have a lot of plants, you can pinch off entire stalks.</t>
+  </si>
+  <si>
+    <t>01_tomato.jpg</t>
+  </si>
+  <si>
+    <t>02_basil.jpg</t>
+  </si>
+  <si>
+    <t>03_lettuce.jpg</t>
+  </si>
+  <si>
+    <t>04_carrot.jpg</t>
+  </si>
+  <si>
+    <t>05_asparagus.jpg</t>
+  </si>
+  <si>
+    <t>06_beans.jpg</t>
+  </si>
+  <si>
+    <t>07_beet.jpg</t>
+  </si>
+  <si>
+    <t>08_Broccoli.jpg</t>
+  </si>
+  <si>
+    <t>09_brussels_sprouts.jpg</t>
+  </si>
+  <si>
+    <t>10_cabbage.jpg</t>
+  </si>
+  <si>
+    <t>11_cauliflower.jpg</t>
+  </si>
+  <si>
+    <t>12_celery.jpg</t>
+  </si>
+  <si>
+    <t>13_chives.jpg</t>
+  </si>
+  <si>
+    <t>14_collard_greens.jpg</t>
+  </si>
+  <si>
+    <t>15_cucumber.jpg</t>
+  </si>
+  <si>
+    <t>16_sweet_corn.jpg</t>
+  </si>
+  <si>
+    <t>17_eggplant.JPG</t>
+  </si>
+  <si>
+    <t>18_onion.jpg</t>
+  </si>
+  <si>
+    <t>19_garlic.jpg</t>
+  </si>
+  <si>
+    <t>20_kale.jpg</t>
+  </si>
+  <si>
+    <t>21_cantaloupe.jpg</t>
+  </si>
+  <si>
+    <t>22_parsnips.jpg</t>
+  </si>
+  <si>
+    <t>23_peas.jpg</t>
+  </si>
+  <si>
+    <t>24_bell_peppers.jpg</t>
+  </si>
+  <si>
+    <t>25_potatoes.jpg</t>
+  </si>
+  <si>
+    <t>26_pumpkin.jpg</t>
+  </si>
+  <si>
+    <t>27_radish.jpg</t>
+  </si>
+  <si>
+    <t>28_rhubarb.jpg</t>
+  </si>
+  <si>
+    <t>29_spinach.JPG</t>
+  </si>
+  <si>
+    <t>30_summer_squash.jpg</t>
+  </si>
+  <si>
+    <t>31_swiss_chard.jpg</t>
+  </si>
+  <si>
+    <t>32_turnip.jpg</t>
+  </si>
+  <si>
+    <t>33_watermelon.jpg</t>
+  </si>
+  <si>
+    <t>34_winter_squash.jpg</t>
+  </si>
+  <si>
+    <t>35_thyme.JPG</t>
+  </si>
+  <si>
+    <t>36_oregano.jpg</t>
+  </si>
+  <si>
+    <t>37_rosemary.jpg</t>
+  </si>
+  <si>
+    <t>38_cilantro.jpg</t>
+  </si>
+  <si>
+    <t>39_parsley.jpg</t>
+  </si>
+  <si>
+    <t>40_mint.jpg</t>
+  </si>
+  <si>
+    <t>41_sage.jpg</t>
+  </si>
+  <si>
+    <t>42_tarragon.jpg</t>
+  </si>
+  <si>
+    <t>43_okra.JPG</t>
+  </si>
+  <si>
+    <t>44_sweet_potato.JPG</t>
+  </si>
+  <si>
+    <t>45_dill.JPG</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,46 +1874,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1750,53 +1891,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFE2E5"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFE2E5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFE2E5"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFE2E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2114,2299 +2214,2400 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="48.140625" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" t="s">
+        <v>611</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
+      <c r="R2" t="s">
+        <v>566</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="M3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" t="s">
         <v>44</v>
       </c>
+      <c r="R3" t="s">
+        <v>567</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="R4" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" t="s">
         <v>71</v>
       </c>
+      <c r="R5" t="s">
+        <v>569</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="R6" t="s">
+        <v>570</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
+      <c r="N7" t="s">
         <v>92</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" t="s">
         <v>94</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" t="s">
         <v>95</v>
       </c>
+      <c r="R7" t="s">
+        <v>571</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="M8" t="s">
         <v>106</v>
       </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
+      <c r="O8" t="s">
         <v>107</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" t="s">
         <v>109</v>
       </c>
+      <c r="R8" t="s">
+        <v>572</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" t="s">
         <v>116</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="M9" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" t="s">
         <v>120</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="R9" t="s">
+        <v>573</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="G10" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" t="s">
         <v>128</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="R10" t="s">
+        <v>574</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>136</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" t="s">
         <v>138</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="N11" t="s">
         <v>139</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" t="s">
         <v>141</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" t="s">
         <v>142</v>
       </c>
+      <c r="R11" t="s">
+        <v>575</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" t="s">
         <v>155</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" t="s">
         <v>156</v>
       </c>
+      <c r="R12" t="s">
+        <v>576</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>160</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5" t="s">
+      <c r="N13" t="s">
         <v>164</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" t="s">
         <v>165</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" t="s">
         <v>166</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" t="s">
         <v>167</v>
       </c>
+      <c r="R13" t="s">
+        <v>577</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>171</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" t="s">
         <v>173</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
+      <c r="N14" t="s">
         <v>177</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" t="s">
         <v>179</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" t="s">
         <v>180</v>
       </c>
+      <c r="R14" t="s">
+        <v>578</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>184</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>185</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" t="s">
         <v>187</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5" t="s">
+      <c r="O15" t="s">
         <v>188</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" t="s">
         <v>189</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" t="s">
         <v>190</v>
       </c>
+      <c r="R15" t="s">
+        <v>579</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>194</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" t="s">
         <v>201</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" t="s">
         <v>202</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="O16" t="s">
         <v>203</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" t="s">
         <v>204</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" t="s">
         <v>205</v>
       </c>
+      <c r="R16" t="s">
+        <v>580</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>207</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>210</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>211</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" t="s">
         <v>212</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" t="s">
         <v>213</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" t="s">
         <v>214</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
+      <c r="O17" t="s">
         <v>215</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" t="s">
         <v>216</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" t="s">
         <v>217</v>
       </c>
+      <c r="R17" t="s">
+        <v>581</v>
+      </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" t="s">
         <v>221</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" t="s">
         <v>223</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" t="s">
         <v>224</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" t="s">
         <v>225</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" t="s">
         <v>226</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" t="s">
         <v>227</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" t="s">
         <v>228</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" t="s">
         <v>229</v>
       </c>
+      <c r="R18" t="s">
+        <v>582</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s">
         <v>232</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" t="s">
         <v>233</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s">
         <v>234</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>235</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" t="s">
         <v>236</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" t="s">
         <v>237</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" t="s">
         <v>238</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" t="s">
         <v>239</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
+      <c r="O19" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" t="s">
         <v>241</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" t="s">
         <v>242</v>
       </c>
+      <c r="R19" t="s">
+        <v>583</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>245</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" t="s">
         <v>247</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" t="s">
         <v>248</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" t="s">
         <v>249</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" t="s">
         <v>250</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" t="s">
         <v>251</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" t="s">
         <v>252</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" t="s">
         <v>253</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" t="s">
         <v>254</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" t="s">
         <v>255</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" t="s">
         <v>256</v>
       </c>
+      <c r="R20" t="s">
+        <v>584</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>185</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" t="s">
         <v>260</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" t="s">
         <v>261</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
+      <c r="M21" t="s">
         <v>262</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5" t="s">
+      <c r="O21" t="s">
         <v>263</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" t="s">
         <v>264</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" t="s">
         <v>265</v>
       </c>
+      <c r="R21" t="s">
+        <v>585</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" t="s">
         <v>269</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" t="s">
         <v>271</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" t="s">
         <v>272</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" t="s">
         <v>273</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" t="s">
         <v>274</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" t="s">
         <v>275</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" t="s">
         <v>276</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" t="s">
         <v>277</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="P22" t="s">
         <v>278</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="Q22" t="s">
         <v>279</v>
       </c>
+      <c r="R22" t="s">
+        <v>586</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>282</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>283</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" t="s">
         <v>284</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>285</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>286</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" t="s">
         <v>287</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" t="s">
         <v>288</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" t="s">
         <v>289</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5" t="s">
+      <c r="P23" t="s">
         <v>290</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="R23" t="s">
+        <v>587</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>293</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" t="s">
         <v>294</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" t="s">
         <v>295</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" t="s">
         <v>296</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" t="s">
         <v>297</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" t="s">
         <v>298</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" t="s">
         <v>299</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" t="s">
         <v>300</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" t="s">
         <v>276</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" t="s">
         <v>301</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="P24" t="s">
         <v>302</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" t="s">
         <v>303</v>
       </c>
+      <c r="R24" t="s">
+        <v>588</v>
+      </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" t="s">
         <v>306</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" t="s">
         <v>307</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" t="s">
         <v>308</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" t="s">
         <v>309</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" t="s">
         <v>310</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" t="s">
         <v>311</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" t="s">
         <v>312</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" t="s">
         <v>313</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" t="s">
         <v>314</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" t="s">
         <v>315</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" t="s">
         <v>316</v>
       </c>
+      <c r="R25" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>317</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>318</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>319</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" t="s">
         <v>320</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" t="s">
         <v>321</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" t="s">
         <v>322</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" t="s">
         <v>323</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" t="s">
         <v>324</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" t="s">
         <v>325</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" t="s">
         <v>326</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" t="s">
         <v>327</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" t="s">
         <v>328</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="P26" t="s">
         <v>329</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q26" t="s">
         <v>330</v>
       </c>
+      <c r="R26" t="s">
+        <v>590</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>332</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>333</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" t="s">
         <v>334</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" t="s">
         <v>335</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" t="s">
         <v>336</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" t="s">
         <v>337</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" t="s">
         <v>338</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" t="s">
         <v>339</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" t="s">
         <v>340</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" t="s">
         <v>341</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" t="s">
         <v>342</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" t="s">
         <v>343</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" t="s">
         <v>344</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" t="s">
         <v>345</v>
       </c>
+      <c r="R27" t="s">
+        <v>591</v>
+      </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>346</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>347</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>333</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>348</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" t="s">
         <v>349</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" t="s">
         <v>350</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" t="s">
         <v>351</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" t="s">
         <v>352</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" t="s">
         <v>353</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
+      <c r="N28" t="s">
         <v>354</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" t="s">
         <v>355</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="P28" t="s">
         <v>356</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="Q28" t="s">
         <v>357</v>
       </c>
+      <c r="R28" t="s">
+        <v>592</v>
+      </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>358</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>359</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>333</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" t="s">
         <v>360</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" t="s">
         <v>361</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" t="s">
         <v>362</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" t="s">
         <v>363</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" t="s">
         <v>364</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" t="s">
         <v>365</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" t="s">
         <v>366</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" t="s">
         <v>367</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" t="s">
         <v>368</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
+      <c r="P29" t="s">
         <v>369</v>
       </c>
-      <c r="Q29" s="5"/>
+      <c r="R29" t="s">
+        <v>593</v>
+      </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>370</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>371</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
         <v>372</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" t="s">
         <v>373</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" t="s">
         <v>374</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" t="s">
         <v>375</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" t="s">
         <v>376</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" t="s">
         <v>377</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" t="s">
         <v>378</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" t="s">
         <v>379</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" t="s">
         <v>380</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" t="s">
         <v>381</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="P30" t="s">
         <v>382</v>
       </c>
-      <c r="Q30" s="4"/>
+      <c r="R30" t="s">
+        <v>594</v>
+      </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>383</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>384</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" t="s">
         <v>385</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" t="s">
         <v>386</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" t="s">
         <v>387</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" t="s">
         <v>388</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" t="s">
         <v>389</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" t="s">
         <v>390</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" t="s">
         <v>391</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" t="s">
         <v>392</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" t="s">
         <v>314</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" t="s">
         <v>393</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" t="s">
         <v>394</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" t="s">
         <v>395</v>
       </c>
+      <c r="R31" t="s">
+        <v>595</v>
+      </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>396</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>397</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>398</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" t="s">
         <v>399</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" t="s">
         <v>400</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" t="s">
         <v>401</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" t="s">
         <v>402</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" t="s">
         <v>403</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4" t="s">
+      <c r="M32" t="s">
         <v>404</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4" t="s">
+      <c r="O32" t="s">
         <v>405</v>
       </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" t="s">
         <v>406</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" t="s">
         <v>407</v>
       </c>
+      <c r="R32" t="s">
+        <v>596</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>408</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>409</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" t="s">
         <v>410</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" t="s">
         <v>411</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" t="s">
         <v>412</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" t="s">
         <v>413</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" t="s">
         <v>414</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" t="s">
         <v>415</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5" t="s">
+      <c r="M33" t="s">
         <v>416</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" t="s">
         <v>417</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" t="s">
         <v>418</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P33" t="s">
         <v>419</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" t="s">
         <v>420</v>
       </c>
+      <c r="R33" t="s">
+        <v>597</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>421</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>422</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" t="s">
         <v>423</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" t="s">
         <v>424</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" t="s">
         <v>425</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" t="s">
         <v>426</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" t="s">
         <v>427</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" t="s">
         <v>428</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" t="s">
         <v>429</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" t="s">
         <v>430</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" t="s">
         <v>343</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" t="s">
         <v>276</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="P34" t="s">
         <v>431</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" t="s">
         <v>432</v>
       </c>
+      <c r="R34" t="s">
+        <v>598</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>433</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" t="s">
         <v>385</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" t="s">
         <v>386</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" t="s">
         <v>387</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" t="s">
         <v>434</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" t="s">
         <v>389</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" t="s">
         <v>390</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" t="s">
         <v>391</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" t="s">
         <v>392</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" t="s">
         <v>314</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" t="s">
         <v>393</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P35" t="s">
         <v>435</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" t="s">
         <v>436</v>
       </c>
+      <c r="R35" t="s">
+        <v>599</v>
+      </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>437</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>438</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>439</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" t="s">
         <v>440</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" t="s">
         <v>441</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" t="s">
         <v>442</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J36" t="s">
         <v>443</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" t="s">
         <v>444</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
+      <c r="M36" t="s">
         <v>445</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" t="s">
         <v>446</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4" t="s">
+      <c r="P36" t="s">
         <v>447</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="Q36" t="s">
         <v>448</v>
       </c>
+      <c r="R36" t="s">
+        <v>600</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>449</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" t="s">
         <v>450</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" t="s">
         <v>451</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" t="s">
         <v>452</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" t="s">
         <v>453</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" t="s">
         <v>442</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" t="s">
         <v>454</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" t="s">
         <v>455</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5" t="s">
+      <c r="M37" t="s">
         <v>456</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" t="s">
         <v>457</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" t="s">
         <v>42</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P37" t="s">
         <v>458</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="Q37" t="s">
         <v>459</v>
       </c>
+      <c r="R37" t="s">
+        <v>601</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>460</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>461</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" t="s">
         <v>462</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" t="s">
         <v>463</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" t="s">
         <v>453</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" t="s">
         <v>442</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" t="s">
         <v>464</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" t="s">
         <v>465</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
+      <c r="M38" t="s">
         <v>466</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" t="s">
         <v>467</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4" t="s">
+      <c r="P38" t="s">
         <v>468</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="Q38" t="s">
         <v>469</v>
       </c>
+      <c r="R38" t="s">
+        <v>602</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>470</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" t="s">
         <v>471</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" t="s">
         <v>472</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" t="s">
         <v>473</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" t="s">
         <v>474</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" t="s">
         <v>442</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" t="s">
         <v>475</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" t="s">
         <v>476</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" t="s">
         <v>477</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" t="s">
         <v>478</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" t="s">
         <v>479</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" t="s">
         <v>42</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P39" t="s">
         <v>480</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" t="s">
         <v>481</v>
       </c>
+      <c r="R39" t="s">
+        <v>603</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>482</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>483</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>98</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>484</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" t="s">
         <v>485</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" t="s">
         <v>486</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
         <v>442</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" t="s">
         <v>487</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" t="s">
         <v>488</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4" t="s">
+      <c r="N40" t="s">
         <v>489</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="O40" t="s">
         <v>490</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="P40" t="s">
         <v>491</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" t="s">
         <v>492</v>
       </c>
+      <c r="R40" t="s">
+        <v>604</v>
+      </c>
     </row>
-    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>493</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>494</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" t="s">
         <v>495</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" t="s">
         <v>496</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" t="s">
         <v>453</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" t="s">
         <v>497</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" t="s">
         <v>498</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" t="s">
         <v>499</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5" t="s">
+      <c r="M41" t="s">
         <v>500</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" t="s">
         <v>501</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5" t="s">
+      <c r="P41" t="s">
         <v>502</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="Q41" t="s">
         <v>503</v>
       </c>
+      <c r="R41" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="42" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>504</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>505</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>506</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" t="s">
         <v>507</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" t="s">
         <v>508</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" t="s">
         <v>509</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="J42" t="s">
         <v>510</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" t="s">
         <v>511</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
+      <c r="M42" t="s">
         <v>512</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="N42" t="s">
         <v>513</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="O42" t="s">
         <v>514</v>
       </c>
-      <c r="P42" s="4" t="s">
+      <c r="P42" t="s">
         <v>515</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="Q42" t="s">
         <v>516</v>
       </c>
+      <c r="R42" t="s">
+        <v>606</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" t="s">
         <v>517</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" t="s">
         <v>518</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" t="s">
         <v>519</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" t="s">
         <v>520</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" t="s">
         <v>521</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" t="s">
         <v>522</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" t="s">
         <v>523</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" t="s">
         <v>511</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5" t="s">
+      <c r="M43" t="s">
         <v>524</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" t="s">
         <v>525</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5" t="s">
+      <c r="P43" t="s">
         <v>526</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" t="s">
         <v>527</v>
       </c>
+      <c r="R43" t="s">
+        <v>607</v>
+      </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>528</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>529</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
+      <c r="G44" t="s">
         <v>530</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" t="s">
         <v>531</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" t="s">
         <v>532</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" t="s">
         <v>533</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" t="s">
         <v>534</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" t="s">
         <v>535</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" t="s">
         <v>536</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="N44" t="s">
         <v>537</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="O44" t="s">
         <v>538</v>
       </c>
-      <c r="P44" s="4" t="s">
+      <c r="P44" t="s">
         <v>539</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="Q44" t="s">
         <v>540</v>
       </c>
+      <c r="R44" t="s">
+        <v>608</v>
+      </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>541</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>542</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" t="s">
         <v>543</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" t="s">
         <v>544</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" t="s">
         <v>545</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" t="s">
         <v>546</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" t="s">
         <v>547</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" t="s">
         <v>548</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" t="s">
         <v>549</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" t="s">
         <v>550</v>
       </c>
-      <c r="N45" s="5" t="s">
+      <c r="N45" t="s">
         <v>551</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" t="s">
         <v>552</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="P45" t="s">
         <v>553</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" t="s">
         <v>554</v>
+      </c>
+      <c r="R45" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>555</v>
+      </c>
+      <c r="C46" t="s">
+        <v>556</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>557</v>
+      </c>
+      <c r="G46" t="s">
+        <v>558</v>
+      </c>
+      <c r="H46" t="s">
+        <v>559</v>
+      </c>
+      <c r="I46" t="s">
+        <v>560</v>
+      </c>
+      <c r="J46" t="s">
+        <v>561</v>
+      </c>
+      <c r="K46" t="s">
+        <v>562</v>
+      </c>
+      <c r="M46" t="s">
+        <v>563</v>
+      </c>
+      <c r="N46" t="s">
+        <v>564</v>
+      </c>
+      <c r="P46" t="s">
+        <v>565</v>
+      </c>
+      <c r="R46" t="s">
+        <v>610</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
